--- a/Posicionamiento_Competidores_Nuestro.xlsx
+++ b/Posicionamiento_Competidores_Nuestro.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Rendimiento" sheetId="2" r:id="rId2"/>
+    <sheet name="Estudio SEO" sheetId="3" r:id="rId2"/>
+    <sheet name="Rendimiento" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>TIPO DE COMPETENCIA</t>
   </si>
@@ -217,16 +218,54 @@
   </si>
   <si>
     <t>https://pagespeed.web.dev/report?url=https%3A%2F%2Fsiliconformacion.com%2Fcontacto%2F&amp;form_factor=desktop</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Certificado Seguridad</t>
+  </si>
+  <si>
+    <t>Nº de BackLinks</t>
+  </si>
+  <si>
+    <t>Dominios referidos</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>https://www.academiaemprende.com/index.php/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramienta Backlinks: </t>
+  </si>
+  <si>
+    <t>ahrefs.com</t>
+  </si>
+  <si>
+    <t>Sí, diseño mejorable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,17 +294,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +931,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5502</v>
+      </c>
+      <c r="C2">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>290</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10258</v>
+      </c>
+      <c r="C5">
+        <v>1051</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2952</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Posicionamiento_Competidores_Nuestro.xlsx
+++ b/Posicionamiento_Competidores_Nuestro.xlsx
@@ -934,7 +934,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Posicionamiento_Competidores_Nuestro.xlsx
+++ b/Posicionamiento_Competidores_Nuestro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
